--- a/CAMPINA_DAS_MISSOES.xlsx
+++ b/CAMPINA_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719F2F14-6B26-4321-955A-12531E3A4125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22E99C1-2ABD-4D25-A121-645CFE1AA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1068,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1128,36 +1115,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,14 +1159,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{469A0932-184A-444C-BD0E-E39580227795}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0B5DA725-A58A-43DE-B2C1-DE1BBD2C07EF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F824C0-DEA5-4292-911A-0A8821D312D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CB3D78-5DF4-43BD-AE09-D27F8D0AFCF8}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C58EA7C-2F64-4D04-8D04-138C1BAB9175}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761AFC7C-07AC-4AE9-834D-4EF9F82A1D8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A5092C-86F4-4DEC-87F5-59F668E849FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3FE1D1-CDDE-43EA-B8BE-28EB41837FC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BAE507-642D-550B-FB43-8D4FDD450173}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77CAFE1-539B-CC0C-5F66-2395C5A2ECFC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1451,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E11D9D-C9A9-10F7-D109-172149984860}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9B2E59-0163-1278-D773-63C6DD0E46CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EE1353-91EB-B125-EF44-38F23BAD0407}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6174F155-CEFC-68F2-A6C7-4617140D14A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157B9BD7-922C-617A-0515-F05EF4F213BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC15DD3-C829-922A-47E7-680714EA4B2E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC40C048-0AC8-85BB-8DC7-EC791A5206CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674AC8F3-07B3-0B76-09F1-9D417BE9AAB7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1575,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EFA785-ECC9-4BB6-B109-59474DCF24B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C2E870-C6B4-4DB3-A9F9-6C17053F4160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9292CFAC-3130-4D8D-8A22-AE5D92F5F768}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FF6FA0-4591-46D0-B00F-239E147600AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F26B555-2369-4C36-951A-16CD76178BDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C95FE2F-4B14-47E3-AB5B-4F21D71640CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE093FC-5BC4-43D5-BBBF-C6E65D2312FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA69CE-99AE-4212-AD47-435852DD18AD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1981,98 +1939,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5340,19 +5298,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5375,46 +5333,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5439,54 +5397,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5497,43 +5456,43 @@
       <c r="B2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45170</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>1088</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>2905</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>420</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>297</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="27" t="s">
         <v>299</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5564,25 +5523,24 @@
       <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="32">
         <v>18</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="35">
-        <v>18</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.190318740907287E-3</v>
       </c>
     </row>

--- a/CAMPINA_DAS_MISSOES.xlsx
+++ b/CAMPINA_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22E99C1-2ABD-4D25-A121-645CFE1AA128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76C97F2-6D30-40F9-9244-210217E42351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{0B5DA725-A58A-43DE-B2C1-DE1BBD2C07EF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{12FB9DF9-F402-43C4-93BD-0EF328A6D154}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CB3D78-5DF4-43BD-AE09-D27F8D0AFCF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E41B99B-7AEC-4298-ABA3-969F132F6CE4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761AFC7C-07AC-4AE9-834D-4EF9F82A1D8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F881D4C8-23E7-4454-A670-F848DD22840B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3FE1D1-CDDE-43EA-B8BE-28EB41837FC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E82E23-8195-4DDE-BAF6-C39ED112C61A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77CAFE1-539B-CC0C-5F66-2395C5A2ECFC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA15CB54-C95E-F6A9-31DC-2CF45DF85698}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9B2E59-0163-1278-D773-63C6DD0E46CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3484B802-6766-89AA-107E-7DD4EE9AFDB7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6174F155-CEFC-68F2-A6C7-4617140D14A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3521D099-FAE1-ABB1-6761-4226031BB0B7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC15DD3-C829-922A-47E7-680714EA4B2E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C346E78D-F77A-5CFB-A48E-EE98B076050B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674AC8F3-07B3-0B76-09F1-9D417BE9AAB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E379BD-BBA6-4E5D-80F7-B9A5D41910EF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C2E870-C6B4-4DB3-A9F9-6C17053F4160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13FAA94-9717-4F45-BCDE-D191BCAFC6A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FF6FA0-4591-46D0-B00F-239E147600AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960C3A6F-36C7-405C-9CF6-1D3534F44395}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C95FE2F-4B14-47E3-AB5B-4F21D71640CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC99698-D025-455E-B4D3-F6B6462DC2E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA69CE-99AE-4212-AD47-435852DD18AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92728D-64EA-443E-AA05-2C3C7BAF019B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/CAMPINA_DAS_MISSOES.xlsx
+++ b/CAMPINA_DAS_MISSOES.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76C97F2-6D30-40F9-9244-210217E42351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A183A5F5-555A-45B6-8E76-E98EAB8ADBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="300">
   <si>
     <t>COMARCA</t>
   </si>
@@ -926,15 +925,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CAMPINA DAS MISSÕES</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,27 +1177,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{12FB9DF9-F402-43C4-93BD-0EF328A6D154}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{37C6B22D-9CA9-4EB5-8E9F-62DFD15FC9BF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E41B99B-7AEC-4298-ABA3-969F132F6CE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CC5DBE-28F2-47D1-9BA3-C4D9A2CEB118}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F881D4C8-23E7-4454-A670-F848DD22840B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEA0F80-FB27-4B6D-9654-D95C309211EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E82E23-8195-4DDE-BAF6-C39ED112C61A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E469F1-8BEC-498C-A284-01E99127167F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA15CB54-C95E-F6A9-31DC-2CF45DF85698}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF0C304-E397-E25E-536C-6E95B206DE32}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3484B802-6766-89AA-107E-7DD4EE9AFDB7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C096BE9-A4D7-0DF6-75AC-3C779967119B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3521D099-FAE1-ABB1-6761-4226031BB0B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D953D500-CCB3-94D1-27A0-B17BCEA23AE7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C346E78D-F77A-5CFB-A48E-EE98B076050B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB10A43-D89A-A919-63F2-DE1EED15989A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E379BD-BBA6-4E5D-80F7-B9A5D41910EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C379D96A-093F-8EB2-0DFB-22F1F2932C52}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13FAA94-9717-4F45-BCDE-D191BCAFC6A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DAC6F5-B337-4D1D-B9F4-60DBC3FD0210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960C3A6F-36C7-405C-9CF6-1D3534F44395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B56FFE8-C7DC-44FE-B9D6-A4D9823FE755}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC99698-D025-455E-B4D3-F6B6462DC2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB38878-2C55-40A3-8F81-B53CB89C160D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE92728D-64EA-443E-AA05-2C3C7BAF019B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEAF107-2F33-45C6-897A-D997E5458F48}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1939,98 +1914,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5499,52 +5474,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="32">
-        <v>18</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.190318740907287E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/CAMPINA_DAS_MISSOES.xlsx
+++ b/CAMPINA_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A183A5F5-555A-45B6-8E76-E98EAB8ADBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33CC540B-F21F-4952-99EB-8D9C58A7A738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{37C6B22D-9CA9-4EB5-8E9F-62DFD15FC9BF}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{274039A8-5AB3-4FAA-845E-BC3E2BB3916F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CC5DBE-28F2-47D1-9BA3-C4D9A2CEB118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C798F5-FADE-4BDA-8AB2-CFA464ECF228}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEA0F80-FB27-4B6D-9654-D95C309211EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED93D043-E617-46E2-8717-20CCE7C4ABC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E469F1-8BEC-498C-A284-01E99127167F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609348BC-A815-4C71-9BEF-73B9233CC5CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF0C304-E397-E25E-536C-6E95B206DE32}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFCF2D2-FED2-D999-182F-0FC6D05333EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C096BE9-A4D7-0DF6-75AC-3C779967119B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3A05FD-0F19-BA02-5457-4D88C2D7918C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D953D500-CCB3-94D1-27A0-B17BCEA23AE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C42F66C-BC49-AB56-4E62-40191D8BD6B6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB10A43-D89A-A919-63F2-DE1EED15989A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C487FE5-527D-3A0F-759A-E08FEE804E9B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C379D96A-093F-8EB2-0DFB-22F1F2932C52}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7325F24A-3EDD-2F8F-37F6-6012188C02EB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DAC6F5-B337-4D1D-B9F4-60DBC3FD0210}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAA4EDA-DE76-4F45-AF7B-7D727E1E0F0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B56FFE8-C7DC-44FE-B9D6-A4D9823FE755}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632A4386-01F1-4B1E-A04A-E10C6C0B6AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,50 +1571,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB38878-2C55-40A3-8F81-B53CB89C160D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEAF107-2F33-45C6-897A-D997E5458F48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEE9BA6-ECCF-4DC5-B9EC-6BD0E9B93C65}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
